--- a/09.xlsx
+++ b/09.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-12475', id='35362'&gt;, &lt;JIRA Issue: key='SAAS2-12476', id='35363'&gt;, &lt;JIRA Issue: key='SAAS2-12477', id='35364'&gt;]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -468,55 +468,547 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Android', '移动端']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[移动端 - 我的]上传微信二维码名片选择图片，取消后页面跳到失败页面</t>
+          <t>需求设计与任务拆解</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>已解决</t>
+          <t>开放</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>故障</t>
+          <t>用户故事</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>徐远翔</t>
+          <t>屈淮南</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SAAS2-11781</t>
+          <t>SAAS2-12474</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-05-28 02:52:56</t>
+          <t>2019-06-13 02:17:50</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2019-05-28 03:13:07</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>13.7</v>
+        <v>-0.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12346', id='35130'&gt;, &lt;JIRA Issue: key='SAAS2-12347', id='35131'&gt;, &lt;JIRA Issue: key='SAAS2-12348', id='35133'&gt;, &lt;JIRA Issue: key='SAAS2-12446', id='35318'&gt;]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>微信二维码上传交互</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>张荔</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SAAS2-12345</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:59:35</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12485', id='35375'&gt;, &lt;JIRA Issue: key='SAAS2-12486', id='35376'&gt;]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>iOS - 打包同步到钉钉</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>任务</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SAAS2-12280</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2019-06-10 22:03:31</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12479', id='35366'&gt;, &lt;JIRA Issue: key='SAAS2-12480', id='35367'&gt;]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>iOS - 技术演进 - 网络层优化</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>任务</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SAAS2-12185</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2019-06-07 02:30:08</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12478', id='35365'&gt;]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>iOS - 技术演进 - 新增 Router 路由层</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>任务</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SAAS2-12184</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-06-07 02:29:29</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12229', id='34852'&gt;, &lt;JIRA Issue: key='SAAS2-12230', id='34853'&gt;, &lt;JIRA Issue: key='SAAS2-12455', id='35328'&gt;, &lt;JIRA Issue: key='SAAS2-12456', id='35329'&gt;]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>移动端-菜单“+ ”按钮的动效</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>张荔</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>SAAS2-12083</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-06-05 19:55:11</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12277', id='34925'&gt;, &lt;JIRA Issue: key='SAAS2-12278', id='34926'&gt;, &lt;JIRA Issue: key='SAAS2-12457', id='35330'&gt;, &lt;JIRA Issue: key='SAAS2-12458', id='35331'&gt;]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>移动端-升级提醒</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SAAS2-12082</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2019-06-05 19:54:41</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12267', id='34914'&gt;, &lt;JIRA Issue: key='SAAS2-12268', id='34915'&gt;, &lt;JIRA Issue: key='SAAS2-12269', id='34916'&gt;, &lt;JIRA Issue: key='SAAS2-12270', id='34917'&gt;, &lt;JIRA Issue: key='SAAS2-12271', id='34918'&gt;, &lt;JIRA Issue: key='SAAS2-12272', id='34919'&gt;, &lt;JIRA Issue: key='SAAS2-12273', id='34921'&gt;, &lt;JIRA Issue: key='SAAS2-12274', id='34922'&gt;, &lt;JIRA Issue: key='SAAS2-12275', id='34923'&gt;, &lt;JIRA Issue: key='SAAS2-12276', id='34924'&gt;, &lt;JIRA Issue: key='SAAS2-12453', id='35326'&gt;, &lt;JIRA Issue: key='SAAS2-12454', id='35327'&gt;, &lt;JIRA Issue: key='SAAS2-12481', id='35369'&gt;, &lt;JIRA Issue: key='SAAS2-12482', id='35370'&gt;, &lt;JIRA Issue: key='SAAS2-12483', id='35372'&gt;, &lt;JIRA Issue: key='SAAS2-12484', id='35373'&gt;]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>移动端-我的改版</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SAAS2-12079</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-06-05 19:53:32</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-12231', id='34858'&gt;, &lt;JIRA Issue: key='SAAS2-12232', id='34859'&gt;, &lt;JIRA Issue: key='SAAS2-12233', id='34860'&gt;, &lt;JIRA Issue: key='SAAS2-12234', id='34861'&gt;, &lt;JIRA Issue: key='SAAS2-12235', id='34862'&gt;, &lt;JIRA Issue: key='SAAS2-12236', id='34863'&gt;, &lt;JIRA Issue: key='SAAS2-12237', id='34864'&gt;, &lt;JIRA Issue: key='SAAS2-12238', id='34865'&gt;, &lt;JIRA Issue: key='SAAS2-12239', id='34866'&gt;, &lt;JIRA Issue: key='SAAS2-12240', id='34867'&gt;, &lt;JIRA Issue: key='SAAS2-12241', id='34868'&gt;, &lt;JIRA Issue: key='SAAS2-12242', id='34869'&gt;, &lt;JIRA Issue: key='SAAS2-12243', id='34870'&gt;, &lt;JIRA Issue: key='SAAS2-12244', id='34871'&gt;, &lt;JIRA Issue: key='SAAS2-12245', id='34872'&gt;, &lt;JIRA Issue: key='SAAS2-12246', id='34873'&gt;, &lt;JIRA Issue: key='SAAS2-12247', id='34874'&gt;, &lt;JIRA Issue: key='SAAS2-12248', id='34875'&gt;, &lt;JIRA Issue: key='SAAS2-12249', id='34876'&gt;, &lt;JIRA Issue: key='SAAS2-12250', id='34878'&gt;, &lt;JIRA Issue: key='SAAS2-12251', id='34879'&gt;, &lt;JIRA Issue: key='SAAS2-12252', id='34880'&gt;, &lt;JIRA Issue: key='SAAS2-12253', id='34881'&gt;, &lt;JIRA Issue: key='SAAS2-12341', id='35119'&gt;, &lt;JIRA Issue: key='SAAS2-12342', id='35120'&gt;, &lt;JIRA Issue: key='SAAS2-12450', id='35323'&gt;, &lt;JIRA Issue: key='SAAS2-12451', id='35324'&gt;]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>移动端-房源列表UI交互改版</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>张荔</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SAAS2-12076</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2019-06-05 19:51:24</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>18.25</v>
       </c>
     </row>
   </sheetData>

--- a/09.xlsx
+++ b/09.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12475', id='35362'&gt;, &lt;JIRA Issue: key='SAAS2-12476', id='35363'&gt;, &lt;JIRA Issue: key='SAAS2-12477', id='35364'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11828', id='33676'&gt;]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -468,12 +468,12 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['三稿不一致']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>需求设计与任务拆解</t>
+          <t>移动端升级平台搭建</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>用户故事</t>
+          <t>任务</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -498,21 +498,21 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SAAS2-12474</t>
+          <t>SAAS2-11827</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-06-13 02:17:50</t>
+          <t>2019-05-28 23:44:24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>-0.3</v>
+        <v>17.4</v>
       </c>
       <c r="R2" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12346', id='35130'&gt;, &lt;JIRA Issue: key='SAAS2-12347', id='35131'&gt;, &lt;JIRA Issue: key='SAAS2-12348', id='35133'&gt;, &lt;JIRA Issue: key='SAAS2-12446', id='35318'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11759', id='33522'&gt;, &lt;JIRA Issue: key='SAAS2-11760', id='33523'&gt;, &lt;JIRA Issue: key='SAAS2-11761', id='33524'&gt;, &lt;JIRA Issue: key='SAAS2-11762', id='33525'&gt;, &lt;JIRA Issue: key='SAAS2-11763', id='33526'&gt;, &lt;JIRA Issue: key='SAAS2-11764', id='33528'&gt;]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -530,22 +530,22 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['移动端']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>微信二维码上传交互</t>
+          <t>sprint08需求设计时间</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -555,26 +555,34 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>张荔</t>
+          <t>屈淮南</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SAAS2-12345</t>
+          <t>SAAS2-11757</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2019-06-12 00:59:35</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+          <t>2019-05-28 00:35:33</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2019-05-31 22:02:07</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2019-05-31 22:02:04</t>
+        </is>
+      </c>
       <c r="Q3" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="R3" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +592,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12485', id='35375'&gt;, &lt;JIRA Issue: key='SAAS2-12486', id='35376'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11817', id='33652'&gt;, &lt;JIRA Issue: key='SAAS2-11818', id='33653'&gt;]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -597,46 +605,54 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>iOS - 打包同步到钉钉</t>
+          <t>【VR】VR预览接口增加字段</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>任务</t>
+          <t>用户故事</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>徐臻</t>
+          <t>万经言</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>SAAS2-12280</t>
+          <t>SAAS2-11602</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2019-06-10 22:03:31</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+          <t>2019-05-24 22:12:18</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:56:03</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:56:03</t>
+        </is>
+      </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>18.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -646,7 +662,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12479', id='35366'&gt;, &lt;JIRA Issue: key='SAAS2-12480', id='35367'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11805', id='33631'&gt;, &lt;JIRA Issue: key='SAAS2-11806', id='33632'&gt;]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -654,27 +670,27 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['狗粮', '移动端']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>iOS - 技术演进 - 网络层优化</t>
+          <t>消息-公告详情支持展示表格</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>任务</t>
+          <t>用户故事</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -684,18 +700,26 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SAAS2-12185</t>
+          <t>SAAS2-11598</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2019-06-07 02:30:08</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+          <t>2019-05-24 21:55:00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:15:37</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:15:37</t>
+        </is>
+      </c>
       <c r="Q5" t="n">
-        <v>5.7</v>
+        <v>18.1</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -708,7 +732,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12478', id='35365'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11814', id='33648'&gt;, &lt;JIRA Issue: key='SAAS2-11815', id='33649'&gt;]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -716,48 +740,56 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['狗粮', '移动端']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>iOS - 技术演进 - 新增 Router 路由层</t>
+          <t>移动端被修改的公司公告消息详情增加【此公告已被修改】文案</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>任务</t>
+          <t>用户故事</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>徐臻</t>
+          <t>屈淮南</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>SAAS2-12184</t>
+          <t>SAAS2-11515</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2019-06-07 02:29:29</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+          <t>2019-05-23 23:43:41</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2019-06-11 18:12:47</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2019-06-11 18:12:47</t>
+        </is>
+      </c>
       <c r="Q6" t="n">
-        <v>5.7</v>
+        <v>18.8</v>
       </c>
       <c r="R6" t="n">
         <v>0.5</v>
@@ -770,7 +802,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12229', id='34852'&gt;, &lt;JIRA Issue: key='SAAS2-12230', id='34853'&gt;, &lt;JIRA Issue: key='SAAS2-12455', id='35328'&gt;, &lt;JIRA Issue: key='SAAS2-12456', id='35329'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11631', id='33231'&gt;, &lt;JIRA Issue: key='SAAS2-11632', id='33232'&gt;, &lt;JIRA Issue: key='SAAS2-11634', id='33235'&gt;, &lt;JIRA Issue: key='SAAS2-11635', id='33236'&gt;, &lt;JIRA Issue: key='SAAS2-11636', id='33237'&gt;, &lt;JIRA Issue: key='SAAS2-11637', id='33238'&gt;, &lt;JIRA Issue: key='SAAS2-11638', id='33239'&gt;, &lt;JIRA Issue: key='SAAS2-11639', id='33240'&gt;, &lt;JIRA Issue: key='SAAS2-11648', id='33251'&gt;, &lt;JIRA Issue: key='SAAS2-11649', id='33252'&gt;, &lt;JIRA Issue: key='SAAS2-11650', id='33253'&gt;, &lt;JIRA Issue: key='SAAS2-11651', id='33254'&gt;, &lt;JIRA Issue: key='SAAS2-11652', id='33255'&gt;, &lt;JIRA Issue: key='SAAS2-11653', id='33256'&gt;, &lt;JIRA Issue: key='SAAS2-11654', id='33257'&gt;, &lt;JIRA Issue: key='SAAS2-11656', id='33260'&gt;, &lt;JIRA Issue: key='SAAS2-11657', id='33261'&gt;, &lt;JIRA Issue: key='SAAS2-11741', id='33486'&gt;, &lt;JIRA Issue: key='SAAS2-11743', id='33488'&gt;, &lt;JIRA Issue: key='SAAS2-12181', id='34744'&gt;, &lt;JIRA Issue: key='SAAS2-12219', id='34836'&gt;, &lt;JIRA Issue: key='SAAS2-12266', id='34910'&gt;, &lt;JIRA Issue: key='SAAS2-12299', id='34978'&gt;, &lt;JIRA Issue: key='SAAS2-12306', id='34994'&gt;]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -783,17 +815,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>移动端-菜单“+ ”按钮的动效</t>
+          <t>【移动端】消息系统改版</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -803,26 +835,34 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>张荔</t>
+          <t>曹海涛</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>SAAS2-12083</t>
+          <t>SAAS2-11453</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2019-06-05 19:55:11</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+          <t>2019-05-22 22:03:58</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:09:36</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:09:27</t>
+        </is>
+      </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>20.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -832,7 +872,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12277', id='34925'&gt;, &lt;JIRA Issue: key='SAAS2-12278', id='34926'&gt;, &lt;JIRA Issue: key='SAAS2-12457', id='35330'&gt;, &lt;JIRA Issue: key='SAAS2-12458', id='35331'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11682', id='33398'&gt;, &lt;JIRA Issue: key='SAAS2-11683', id='33399'&gt;, &lt;JIRA Issue: key='SAAS2-11684', id='33400'&gt;, &lt;JIRA Issue: key='SAAS2-11685', id='33401'&gt;, &lt;JIRA Issue: key='SAAS2-11686', id='33402'&gt;, &lt;JIRA Issue: key='SAAS2-11687', id='33403'&gt;, &lt;JIRA Issue: key='SAAS2-11688', id='33404'&gt;, &lt;JIRA Issue: key='SAAS2-11689', id='33405'&gt;, &lt;JIRA Issue: key='SAAS2-11690', id='33406'&gt;, &lt;JIRA Issue: key='SAAS2-11691', id='33407'&gt;, &lt;JIRA Issue: key='SAAS2-11692', id='33408'&gt;, &lt;JIRA Issue: key='SAAS2-11694', id='33410'&gt;, &lt;JIRA Issue: key='SAAS2-11695', id='33411'&gt;, &lt;JIRA Issue: key='SAAS2-11696', id='33412'&gt;, &lt;JIRA Issue: key='SAAS2-11697', id='33413'&gt;, &lt;JIRA Issue: key='SAAS2-11698', id='33414'&gt;, &lt;JIRA Issue: key='SAAS2-11699', id='33415'&gt;, &lt;JIRA Issue: key='SAAS2-11700', id='33416'&gt;, &lt;JIRA Issue: key='SAAS2-11701', id='33417'&gt;, &lt;JIRA Issue: key='SAAS2-11702', id='33418'&gt;, &lt;JIRA Issue: key='SAAS2-11703', id='33419'&gt;, &lt;JIRA Issue: key='SAAS2-11706', id='33422'&gt;, &lt;JIRA Issue: key='SAAS2-11707', id='33423'&gt;, &lt;JIRA Issue: key='SAAS2-11709', id='33425'&gt;, &lt;JIRA Issue: key='SAAS2-11710', id='33426'&gt;, &lt;JIRA Issue: key='SAAS2-11716', id='33441'&gt;, &lt;JIRA Issue: key='SAAS2-11717', id='33442'&gt;, &lt;JIRA Issue: key='SAAS2-11718', id='33443'&gt;, &lt;JIRA Issue: key='SAAS2-11719', id='33444'&gt;, &lt;JIRA Issue: key='SAAS2-11720', id='33445'&gt;, &lt;JIRA Issue: key='SAAS2-11721', id='33446'&gt;, &lt;JIRA Issue: key='SAAS2-11728', id='33471'&gt;, &lt;JIRA Issue: key='SAAS2-11729', id='33472'&gt;, &lt;JIRA Issue: key='SAAS2-11746', id='33492'&gt;, &lt;JIRA Issue: key='SAAS2-11998', id='34173'&gt;, &lt;JIRA Issue: key='SAAS2-12011', id='34218'&gt;, &lt;JIRA Issue: key='SAAS2-12015', id='34252'&gt;, &lt;JIRA Issue: key='SAAS2-12018', id='34258'&gt;, &lt;JIRA Issue: key='SAAS2-12019', id='34264'&gt;, &lt;JIRA Issue: key='SAAS2-12022', id='34276'&gt;, &lt;JIRA Issue: key='SAAS2-12024', id='34291'&gt;, &lt;JIRA Issue: key='SAAS2-12029', id='34297'&gt;, &lt;JIRA Issue: key='SAAS2-12030', id='34303'&gt;, &lt;JIRA Issue: key='SAAS2-12031', id='34313'&gt;, &lt;JIRA Issue: key='SAAS2-12032', id='34317'&gt;, &lt;JIRA Issue: key='SAAS2-12052', id='34427'&gt;, &lt;JIRA Issue: key='SAAS2-12055', id='34439'&gt;, &lt;JIRA Issue: key='SAAS2-12056', id='34440'&gt;, &lt;JIRA Issue: key='SAAS2-12057', id='34441'&gt;, &lt;JIRA Issue: key='SAAS2-12058', id='34443'&gt;, &lt;JIRA Issue: key='SAAS2-12067', id='34477'&gt;, &lt;JIRA Issue: key='SAAS2-12072', id='34486'&gt;, &lt;JIRA Issue: key='SAAS2-12074', id='34489'&gt;, &lt;JIRA Issue: key='SAAS2-12080', id='34500'&gt;, &lt;JIRA Issue: key='SAAS2-12102', id='34589'&gt;, &lt;JIRA Issue: key='SAAS2-12286', id='34953'&gt;]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -845,17 +885,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>移动端-升级提醒</t>
+          <t>【移动端】首页改版</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -870,21 +910,29 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>SAAS2-12082</t>
+          <t>SAAS2-11451</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2019-06-05 19:54:41</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+          <t>2019-05-22 21:53:48</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:06:08</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:06:08</t>
+        </is>
+      </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>20.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="9">
@@ -894,7 +942,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12267', id='34914'&gt;, &lt;JIRA Issue: key='SAAS2-12268', id='34915'&gt;, &lt;JIRA Issue: key='SAAS2-12269', id='34916'&gt;, &lt;JIRA Issue: key='SAAS2-12270', id='34917'&gt;, &lt;JIRA Issue: key='SAAS2-12271', id='34918'&gt;, &lt;JIRA Issue: key='SAAS2-12272', id='34919'&gt;, &lt;JIRA Issue: key='SAAS2-12273', id='34921'&gt;, &lt;JIRA Issue: key='SAAS2-12274', id='34922'&gt;, &lt;JIRA Issue: key='SAAS2-12275', id='34923'&gt;, &lt;JIRA Issue: key='SAAS2-12276', id='34924'&gt;, &lt;JIRA Issue: key='SAAS2-12453', id='35326'&gt;, &lt;JIRA Issue: key='SAAS2-12454', id='35327'&gt;, &lt;JIRA Issue: key='SAAS2-12481', id='35369'&gt;, &lt;JIRA Issue: key='SAAS2-12482', id='35370'&gt;, &lt;JIRA Issue: key='SAAS2-12483', id='35372'&gt;, &lt;JIRA Issue: key='SAAS2-12484', id='35373'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11628', id='33228'&gt;, &lt;JIRA Issue: key='SAAS2-11629', id='33229'&gt;, &lt;JIRA Issue: key='SAAS2-11731', id='33475'&gt;, &lt;JIRA Issue: key='SAAS2-11732', id='33476'&gt;]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -907,7 +955,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>移动端-我的改版</t>
+          <t xml:space="preserve">webview 组件封装  </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -927,26 +975,26 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>徐臻</t>
+          <t>万经言</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>SAAS2-12079</t>
+          <t>SAAS2-11430</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2019-06-05 19:53:32</t>
+          <t>2019-05-22 18:17:40</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>7</v>
+        <v>23.6</v>
       </c>
       <c r="R9" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -956,7 +1004,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[&lt;JIRA Issue: key='SAAS2-12231', id='34858'&gt;, &lt;JIRA Issue: key='SAAS2-12232', id='34859'&gt;, &lt;JIRA Issue: key='SAAS2-12233', id='34860'&gt;, &lt;JIRA Issue: key='SAAS2-12234', id='34861'&gt;, &lt;JIRA Issue: key='SAAS2-12235', id='34862'&gt;, &lt;JIRA Issue: key='SAAS2-12236', id='34863'&gt;, &lt;JIRA Issue: key='SAAS2-12237', id='34864'&gt;, &lt;JIRA Issue: key='SAAS2-12238', id='34865'&gt;, &lt;JIRA Issue: key='SAAS2-12239', id='34866'&gt;, &lt;JIRA Issue: key='SAAS2-12240', id='34867'&gt;, &lt;JIRA Issue: key='SAAS2-12241', id='34868'&gt;, &lt;JIRA Issue: key='SAAS2-12242', id='34869'&gt;, &lt;JIRA Issue: key='SAAS2-12243', id='34870'&gt;, &lt;JIRA Issue: key='SAAS2-12244', id='34871'&gt;, &lt;JIRA Issue: key='SAAS2-12245', id='34872'&gt;, &lt;JIRA Issue: key='SAAS2-12246', id='34873'&gt;, &lt;JIRA Issue: key='SAAS2-12247', id='34874'&gt;, &lt;JIRA Issue: key='SAAS2-12248', id='34875'&gt;, &lt;JIRA Issue: key='SAAS2-12249', id='34876'&gt;, &lt;JIRA Issue: key='SAAS2-12250', id='34878'&gt;, &lt;JIRA Issue: key='SAAS2-12251', id='34879'&gt;, &lt;JIRA Issue: key='SAAS2-12252', id='34880'&gt;, &lt;JIRA Issue: key='SAAS2-12253', id='34881'&gt;, &lt;JIRA Issue: key='SAAS2-12341', id='35119'&gt;, &lt;JIRA Issue: key='SAAS2-12342', id='35120'&gt;, &lt;JIRA Issue: key='SAAS2-12450', id='35323'&gt;, &lt;JIRA Issue: key='SAAS2-12451', id='35324'&gt;]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11733', id='33478'&gt;, &lt;JIRA Issue: key='SAAS2-11735', id='33480'&gt;, &lt;JIRA Issue: key='SAAS2-11736', id='33481'&gt;, &lt;JIRA Issue: key='SAAS2-11739', id='33484'&gt;, &lt;JIRA Issue: key='SAAS2-11740', id='33485'&gt;]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -964,51 +1012,261 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['移动端']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>移动端-房源列表UI交互改版</t>
+          <t>【移动端】审批页面优化（RN）</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>夏南</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SAAS2-11314</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2019-05-20 19:52:17</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:13</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:13</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-10777', id='31187'&gt;, &lt;JIRA Issue: key='SAAS2-10778', id='31188'&gt;, &lt;JIRA Issue: key='SAAS2-10779', id='31189'&gt;, &lt;JIRA Issue: key='SAAS2-10780', id='31191'&gt;, &lt;JIRA Issue: key='SAAS2-10834', id='31319'&gt;, &lt;JIRA Issue: key='SAAS2-10964', id='31571'&gt;, &lt;JIRA Issue: key='SAAS2-10965', id='31572'&gt;, &lt;JIRA Issue: key='SAAS2-11094', id='31867'&gt;]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>【登录】新增loading样式</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>开放</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>用户故事</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>张荔</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>SAAS2-12076</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2019-06-05 19:51:24</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>18.25</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>SAAS2-10659</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2019-05-09 23:32:29</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-10933', id='31513'&gt;, &lt;JIRA Issue: key='SAAS2-10934', id='31514'&gt;, &lt;JIRA Issue: key='SAAS2-11079', id='31846'&gt;]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Firebase 添加 用户维度相关代码</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>屈淮南</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SAAS2-10519</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2019-05-07 19:53:54</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:25</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:25</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-10142', id='29426'&gt;, &lt;JIRA Issue: key='SAAS2-10144', id='29428'&gt;, &lt;JIRA Issue: key='SAAS2-10236', id='29587'&gt;, &lt;JIRA Issue: key='SAAS2-10237', id='29588'&gt;, &lt;JIRA Issue: key='SAAS2-10238', id='29589'&gt;, &lt;JIRA Issue: key='SAAS2-10239', id='29590'&gt;]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>房源列表楼层筛选，筛选低中高层以及精确输入楼层</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>曹海涛</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SAAS2-9869</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2019-04-22 23:05:50</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2019-06-12 01:29:33</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2019-05-31 22:04:32</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/09.xlsx
+++ b/09.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11828', id='33676'&gt;]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -468,12 +468,12 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['online', '日志报警', '移动端']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>移动端登陆页面出现空的公司选择项</t>
+          <t>移动端升级平台搭建</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -488,31 +488,31 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>任务</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>陈平云</t>
+          <t>屈淮南</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SAAS2-12545</t>
+          <t>SAAS2-11827</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-06-14 17:03:21</t>
+          <t>2019-05-28 23:44:24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>0.8</v>
+        <v>17.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11759', id='33522'&gt;, &lt;JIRA Issue: key='SAAS2-11760', id='33523'&gt;, &lt;JIRA Issue: key='SAAS2-11761', id='33524'&gt;, &lt;JIRA Issue: key='SAAS2-11762', id='33525'&gt;, &lt;JIRA Issue: key='SAAS2-11763', id='33526'&gt;, &lt;JIRA Issue: key='SAAS2-11764', id='33528'&gt;]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -530,27 +530,27 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['延迟修复', '移动端']</t>
+          <t>['移动端']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>房源分享优化</t>
+          <t>sprint08需求设计时间</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>用户故事</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -560,21 +560,29 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SAAS2-12404</t>
+          <t>SAAS2-11757</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2019-06-12 19:49:54</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+          <t>2019-05-28 00:35:33</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2019-05-31 22:02:07</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2019-05-31 22:02:04</t>
+        </is>
+      </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +592,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11817', id='33652'&gt;, &lt;JIRA Issue: key='SAAS2-11818', id='33653'&gt;]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -592,51 +600,59 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['延迟修复', '移动端']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>海报分享产品验收bug</t>
+          <t>【VR】VR预览接口增加字段</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>用户故事</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>张磊</t>
+          <t>万经言</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>SAAS2-12372</t>
+          <t>SAAS2-11602</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2019-06-12 18:06:05</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+          <t>2019-05-24 22:12:18</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:56:03</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:56:03</t>
+        </is>
+      </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>18.1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -646,7 +662,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11805', id='33631'&gt;, &lt;JIRA Issue: key='SAAS2-11806', id='33632'&gt;]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -654,51 +670,59 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['延迟修复', '移动端']</t>
+          <t>['狗粮', '移动端']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>海报分享视觉走查bug</t>
+          <t>消息-公告详情支持展示表格</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>开放</t>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>用户故事</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>张磊</t>
+          <t>徐臻</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>SAAS2-12340</t>
+          <t>SAAS2-11598</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2019-06-12 00:10:34</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+          <t>2019-05-24 21:55:00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:15:37</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:15:37</t>
+        </is>
+      </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>18.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -708,7 +732,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[&lt;JIRA Issue: key='SAAS2-11814', id='33648'&gt;, &lt;JIRA Issue: key='SAAS2-11815', id='33649'&gt;]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -716,51 +740,533 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Android', '延迟修复', '移动端']</t>
+          <t>['狗粮', '移动端']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>房源Android，拍摄VR界面，厅、厨卫、其他的默认房间不对，重复的房间类型第一个没有后缀，不能删除未拍摄的房间</t>
+          <t>移动端被修改的公司公告消息详情增加【此公告已被修改】文案</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>屈淮南</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SAAS2-11515</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-05-23 23:43:41</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2019-06-11 18:12:47</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2019-06-11 18:12:47</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-11631', id='33231'&gt;, &lt;JIRA Issue: key='SAAS2-11632', id='33232'&gt;, &lt;JIRA Issue: key='SAAS2-11634', id='33235'&gt;, &lt;JIRA Issue: key='SAAS2-11635', id='33236'&gt;, &lt;JIRA Issue: key='SAAS2-11636', id='33237'&gt;, &lt;JIRA Issue: key='SAAS2-11637', id='33238'&gt;, &lt;JIRA Issue: key='SAAS2-11638', id='33239'&gt;, &lt;JIRA Issue: key='SAAS2-11639', id='33240'&gt;, &lt;JIRA Issue: key='SAAS2-11648', id='33251'&gt;, &lt;JIRA Issue: key='SAAS2-11649', id='33252'&gt;, &lt;JIRA Issue: key='SAAS2-11650', id='33253'&gt;, &lt;JIRA Issue: key='SAAS2-11651', id='33254'&gt;, &lt;JIRA Issue: key='SAAS2-11652', id='33255'&gt;, &lt;JIRA Issue: key='SAAS2-11653', id='33256'&gt;, &lt;JIRA Issue: key='SAAS2-11654', id='33257'&gt;, &lt;JIRA Issue: key='SAAS2-11656', id='33260'&gt;, &lt;JIRA Issue: key='SAAS2-11657', id='33261'&gt;, &lt;JIRA Issue: key='SAAS2-11741', id='33486'&gt;, &lt;JIRA Issue: key='SAAS2-11743', id='33488'&gt;, &lt;JIRA Issue: key='SAAS2-12181', id='34744'&gt;, &lt;JIRA Issue: key='SAAS2-12219', id='34836'&gt;, &lt;JIRA Issue: key='SAAS2-12266', id='34910'&gt;, &lt;JIRA Issue: key='SAAS2-12299', id='34978'&gt;, &lt;JIRA Issue: key='SAAS2-12306', id='34994'&gt;]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>【移动端】消息系统改版</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>曹海涛</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>SAAS2-11453</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-05-22 22:03:58</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:09:36</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:09:27</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-11682', id='33398'&gt;, &lt;JIRA Issue: key='SAAS2-11683', id='33399'&gt;, &lt;JIRA Issue: key='SAAS2-11684', id='33400'&gt;, &lt;JIRA Issue: key='SAAS2-11685', id='33401'&gt;, &lt;JIRA Issue: key='SAAS2-11686', id='33402'&gt;, &lt;JIRA Issue: key='SAAS2-11687', id='33403'&gt;, &lt;JIRA Issue: key='SAAS2-11688', id='33404'&gt;, &lt;JIRA Issue: key='SAAS2-11689', id='33405'&gt;, &lt;JIRA Issue: key='SAAS2-11690', id='33406'&gt;, &lt;JIRA Issue: key='SAAS2-11691', id='33407'&gt;, &lt;JIRA Issue: key='SAAS2-11692', id='33408'&gt;, &lt;JIRA Issue: key='SAAS2-11694', id='33410'&gt;, &lt;JIRA Issue: key='SAAS2-11695', id='33411'&gt;, &lt;JIRA Issue: key='SAAS2-11696', id='33412'&gt;, &lt;JIRA Issue: key='SAAS2-11697', id='33413'&gt;, &lt;JIRA Issue: key='SAAS2-11698', id='33414'&gt;, &lt;JIRA Issue: key='SAAS2-11699', id='33415'&gt;, &lt;JIRA Issue: key='SAAS2-11700', id='33416'&gt;, &lt;JIRA Issue: key='SAAS2-11701', id='33417'&gt;, &lt;JIRA Issue: key='SAAS2-11702', id='33418'&gt;, &lt;JIRA Issue: key='SAAS2-11703', id='33419'&gt;, &lt;JIRA Issue: key='SAAS2-11706', id='33422'&gt;, &lt;JIRA Issue: key='SAAS2-11707', id='33423'&gt;, &lt;JIRA Issue: key='SAAS2-11709', id='33425'&gt;, &lt;JIRA Issue: key='SAAS2-11710', id='33426'&gt;, &lt;JIRA Issue: key='SAAS2-11716', id='33441'&gt;, &lt;JIRA Issue: key='SAAS2-11717', id='33442'&gt;, &lt;JIRA Issue: key='SAAS2-11718', id='33443'&gt;, &lt;JIRA Issue: key='SAAS2-11719', id='33444'&gt;, &lt;JIRA Issue: key='SAAS2-11720', id='33445'&gt;, &lt;JIRA Issue: key='SAAS2-11721', id='33446'&gt;, &lt;JIRA Issue: key='SAAS2-11728', id='33471'&gt;, &lt;JIRA Issue: key='SAAS2-11729', id='33472'&gt;, &lt;JIRA Issue: key='SAAS2-11746', id='33492'&gt;, &lt;JIRA Issue: key='SAAS2-11998', id='34173'&gt;, &lt;JIRA Issue: key='SAAS2-12011', id='34218'&gt;, &lt;JIRA Issue: key='SAAS2-12015', id='34252'&gt;, &lt;JIRA Issue: key='SAAS2-12018', id='34258'&gt;, &lt;JIRA Issue: key='SAAS2-12019', id='34264'&gt;, &lt;JIRA Issue: key='SAAS2-12022', id='34276'&gt;, &lt;JIRA Issue: key='SAAS2-12024', id='34291'&gt;, &lt;JIRA Issue: key='SAAS2-12029', id='34297'&gt;, &lt;JIRA Issue: key='SAAS2-12030', id='34303'&gt;, &lt;JIRA Issue: key='SAAS2-12031', id='34313'&gt;, &lt;JIRA Issue: key='SAAS2-12032', id='34317'&gt;, &lt;JIRA Issue: key='SAAS2-12052', id='34427'&gt;, &lt;JIRA Issue: key='SAAS2-12055', id='34439'&gt;, &lt;JIRA Issue: key='SAAS2-12056', id='34440'&gt;, &lt;JIRA Issue: key='SAAS2-12057', id='34441'&gt;, &lt;JIRA Issue: key='SAAS2-12058', id='34443'&gt;, &lt;JIRA Issue: key='SAAS2-12067', id='34477'&gt;, &lt;JIRA Issue: key='SAAS2-12072', id='34486'&gt;, &lt;JIRA Issue: key='SAAS2-12074', id='34489'&gt;, &lt;JIRA Issue: key='SAAS2-12080', id='34500'&gt;, &lt;JIRA Issue: key='SAAS2-12102', id='34589'&gt;, &lt;JIRA Issue: key='SAAS2-12286', id='34953'&gt;]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>【移动端】首页改版</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SAAS2-11451</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2019-05-22 21:53:48</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:06:08</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2019-06-11 23:06:08</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-11628', id='33228'&gt;, &lt;JIRA Issue: key='SAAS2-11629', id='33229'&gt;, &lt;JIRA Issue: key='SAAS2-11731', id='33475'&gt;, &lt;JIRA Issue: key='SAAS2-11732', id='33476'&gt;]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">webview 组件封装  </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>开放</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>万经言</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>SAAS2-9772</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2019-04-17 23:57:39</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SAAS2-11430</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-05-22 18:17:40</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-11733', id='33478'&gt;, &lt;JIRA Issue: key='SAAS2-11735', id='33480'&gt;, &lt;JIRA Issue: key='SAAS2-11736', id='33481'&gt;, &lt;JIRA Issue: key='SAAS2-11739', id='33484'&gt;, &lt;JIRA Issue: key='SAAS2-11740', id='33485'&gt;]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>【移动端】审批页面优化（RN）</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>夏南</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SAAS2-11314</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2019-05-20 19:52:17</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:13</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:13</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-10777', id='31187'&gt;, &lt;JIRA Issue: key='SAAS2-10778', id='31188'&gt;, &lt;JIRA Issue: key='SAAS2-10779', id='31189'&gt;, &lt;JIRA Issue: key='SAAS2-10780', id='31191'&gt;, &lt;JIRA Issue: key='SAAS2-10834', id='31319'&gt;, &lt;JIRA Issue: key='SAAS2-10964', id='31571'&gt;, &lt;JIRA Issue: key='SAAS2-10965', id='31572'&gt;, &lt;JIRA Issue: key='SAAS2-11094', id='31867'&gt;]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>【登录】新增loading样式</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>开放</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>徐臻</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>SAAS2-10659</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2019-05-09 23:32:29</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-10933', id='31513'&gt;, &lt;JIRA Issue: key='SAAS2-10934', id='31514'&gt;, &lt;JIRA Issue: key='SAAS2-11079', id='31846'&gt;]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Firebase 添加 用户维度相关代码</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>屈淮南</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SAAS2-10519</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2019-05-07 19:53:54</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:25</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2019-06-12 00:16:25</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[&lt;JIRA Issue: key='SAAS2-10142', id='29426'&gt;, &lt;JIRA Issue: key='SAAS2-10144', id='29428'&gt;, &lt;JIRA Issue: key='SAAS2-10236', id='29587'&gt;, &lt;JIRA Issue: key='SAAS2-10237', id='29588'&gt;, &lt;JIRA Issue: key='SAAS2-10238', id='29589'&gt;, &lt;JIRA Issue: key='SAAS2-10239', id='29590'&gt;]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['移动端']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>房源列表楼层筛选，筛选低中高层以及精确输入楼层</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>已关闭</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>用户故事</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>曹海涛</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SAAS2-9869</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2019-04-22 23:05:50</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2019-06-12 01:29:33</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2019-05-31 22:04:32</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
